--- a/src/data/report_test.xlsx
+++ b/src/data/report_test.xlsx
@@ -537,16 +537,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
         <v>47</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -615,19 +615,19 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J6" t="n">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
@@ -723,19 +723,19 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D12" t="n">
         <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G12" t="n">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H12" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I12" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J12" t="n">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -936,76 +936,76 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Solange Cedron</t>
+          <t>Marcela Castillo</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>160</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Angelica Manrique</t>
+          <t>Zoila Lozada</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Vladir Colunga</t>
+          <t>Solange Cedron</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -1018,94 +1018,94 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Zoila Lozada</t>
+          <t>Vladir Colunga</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>196</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Marcela Castillo</t>
+          <t>Miguel Huarcaya</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>251</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Miguel Huarcaya</t>
+          <t>Angelica Manrique</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1118,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="D9" t="n">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E9" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10">
@@ -1146,17 +1146,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>39.0%</t>
+          <t>42.0%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
